--- a/2022/Samsung/APRIL/23.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/23.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -3589,222 +3589,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="42" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3845,6 +3629,222 @@
     <xf numFmtId="1" fontId="36" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="42" fillId="46" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4303,33 +4303,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="385"/>
-      <c r="B2" s="382" t="s">
+      <c r="A2" s="400"/>
+      <c r="B2" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="385"/>
-      <c r="B3" s="383" t="s">
+      <c r="A3" s="400"/>
+      <c r="B3" s="398" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="385"/>
+      <c r="A4" s="400"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4347,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="385"/>
+      <c r="A5" s="400"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="385"/>
+      <c r="A6" s="400"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4377,7 +4377,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="385"/>
+      <c r="A7" s="400"/>
       <c r="B7" s="26" t="s">
         <v>42</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="385"/>
+      <c r="A8" s="400"/>
       <c r="B8" s="26" t="s">
         <v>43</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="385"/>
+      <c r="A9" s="400"/>
       <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="385"/>
+      <c r="A10" s="400"/>
       <c r="B10" s="26" t="s">
         <v>46</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="385"/>
+      <c r="A11" s="400"/>
       <c r="B11" s="26" t="s">
         <v>47</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="385"/>
+      <c r="A12" s="400"/>
       <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="385"/>
+      <c r="A13" s="400"/>
       <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="385"/>
+      <c r="A14" s="400"/>
       <c r="B14" s="26" t="s">
         <v>50</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="385"/>
+      <c r="A15" s="400"/>
       <c r="B15" s="26" t="s">
         <v>51</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="385"/>
+      <c r="A16" s="400"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4561,7 +4561,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="385"/>
+      <c r="A17" s="400"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4574,7 +4574,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="385"/>
+      <c r="A18" s="400"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4587,7 +4587,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="385"/>
+      <c r="A19" s="400"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4600,7 +4600,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="385"/>
+      <c r="A20" s="400"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4613,7 +4613,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="385"/>
+      <c r="A21" s="400"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4626,7 +4626,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="385"/>
+      <c r="A22" s="400"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4639,7 +4639,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="385"/>
+      <c r="A23" s="400"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4652,7 +4652,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="385"/>
+      <c r="A24" s="400"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4665,7 +4665,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="385"/>
+      <c r="A25" s="400"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4678,7 +4678,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="385"/>
+      <c r="A26" s="400"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4691,7 +4691,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="385"/>
+      <c r="A27" s="400"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4704,7 +4704,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="385"/>
+      <c r="A28" s="400"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4717,7 +4717,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="385"/>
+      <c r="A29" s="400"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4730,7 +4730,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="385"/>
+      <c r="A30" s="400"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4743,7 +4743,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="385"/>
+      <c r="A31" s="400"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4756,7 +4756,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="385"/>
+      <c r="A32" s="400"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4769,7 +4769,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="385"/>
+      <c r="A33" s="400"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4782,7 +4782,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="385"/>
+      <c r="A34" s="400"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4795,7 +4795,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="385"/>
+      <c r="A35" s="400"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4808,7 +4808,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="385"/>
+      <c r="A36" s="400"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4821,7 +4821,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="385"/>
+      <c r="A37" s="400"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4834,7 +4834,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="385"/>
+      <c r="A38" s="400"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4847,7 +4847,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="385"/>
+      <c r="A39" s="400"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4860,7 +4860,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="385"/>
+      <c r="A40" s="400"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4873,7 +4873,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="385"/>
+      <c r="A41" s="400"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4886,7 +4886,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="385"/>
+      <c r="A42" s="400"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4899,7 +4899,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="385"/>
+      <c r="A43" s="400"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4912,7 +4912,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="385"/>
+      <c r="A44" s="400"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4925,7 +4925,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="385"/>
+      <c r="A45" s="400"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4938,7 +4938,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="385"/>
+      <c r="A46" s="400"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4951,7 +4951,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="385"/>
+      <c r="A47" s="400"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4964,7 +4964,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="385"/>
+      <c r="A48" s="400"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4977,7 +4977,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="385"/>
+      <c r="A49" s="400"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4990,7 +4990,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="385"/>
+      <c r="A50" s="400"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5003,7 +5003,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="385"/>
+      <c r="A51" s="400"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5016,7 +5016,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="385"/>
+      <c r="A52" s="400"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5029,7 +5029,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="385"/>
+      <c r="A53" s="400"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5042,7 +5042,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="385"/>
+      <c r="A54" s="400"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5055,7 +5055,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="385"/>
+      <c r="A55" s="400"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5067,7 +5067,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="385"/>
+      <c r="A56" s="400"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5079,7 +5079,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="385"/>
+      <c r="A57" s="400"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5091,7 +5091,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="385"/>
+      <c r="A58" s="400"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5103,7 +5103,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="385"/>
+      <c r="A59" s="400"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5115,7 +5115,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="385"/>
+      <c r="A60" s="400"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5127,7 +5127,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="385"/>
+      <c r="A61" s="400"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5139,7 +5139,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="385"/>
+      <c r="A62" s="400"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5151,7 +5151,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="385"/>
+      <c r="A63" s="400"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5163,7 +5163,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="385"/>
+      <c r="A64" s="400"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5175,7 +5175,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="385"/>
+      <c r="A65" s="400"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5187,7 +5187,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="385"/>
+      <c r="A66" s="400"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5199,7 +5199,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="385"/>
+      <c r="A67" s="400"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5211,7 +5211,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="385"/>
+      <c r="A68" s="400"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5223,7 +5223,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="385"/>
+      <c r="A69" s="400"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5235,7 +5235,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="385"/>
+      <c r="A70" s="400"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5247,7 +5247,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="385"/>
+      <c r="A71" s="400"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5259,7 +5259,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="385"/>
+      <c r="A72" s="400"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5271,7 +5271,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="385"/>
+      <c r="A73" s="400"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5283,7 +5283,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="385"/>
+      <c r="A74" s="400"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5295,7 +5295,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="385"/>
+      <c r="A75" s="400"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5307,7 +5307,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="385"/>
+      <c r="A76" s="400"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5319,7 +5319,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="385"/>
+      <c r="A77" s="400"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5331,7 +5331,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="385"/>
+      <c r="A78" s="400"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5343,7 +5343,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="385"/>
+      <c r="A79" s="400"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5355,7 +5355,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="385"/>
+      <c r="A80" s="400"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5367,7 +5367,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="385"/>
+      <c r="A81" s="400"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5379,7 +5379,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="385"/>
+      <c r="A82" s="400"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5391,7 +5391,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="385"/>
+      <c r="A83" s="400"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5448,33 +5448,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="385"/>
-      <c r="B2" s="382" t="s">
+      <c r="A2" s="400"/>
+      <c r="B2" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="385"/>
-      <c r="B3" s="383" t="s">
+      <c r="A3" s="400"/>
+      <c r="B3" s="398" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="385"/>
+      <c r="A4" s="400"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="385"/>
+      <c r="A5" s="400"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="385"/>
+      <c r="A6" s="400"/>
       <c r="B6" s="26"/>
       <c r="C6" s="243"/>
       <c r="D6" s="243"/>
@@ -5522,7 +5522,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="385"/>
+      <c r="A7" s="400"/>
       <c r="B7" s="26" t="s">
         <v>239</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="385"/>
+      <c r="A8" s="400"/>
       <c r="B8" s="26" t="s">
         <v>243</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="385"/>
+      <c r="A9" s="400"/>
       <c r="B9" s="26" t="s">
         <v>249</v>
       </c>
@@ -5582,7 +5582,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="385"/>
+      <c r="A10" s="400"/>
       <c r="B10" s="26" t="s">
         <v>254</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="385"/>
+      <c r="A11" s="400"/>
       <c r="B11" s="26" t="s">
         <v>258</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="385"/>
+      <c r="A12" s="400"/>
       <c r="B12" s="26" t="s">
         <v>260</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="385"/>
+      <c r="A13" s="400"/>
       <c r="B13" s="357" t="s">
         <v>262</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="385"/>
+      <c r="A14" s="400"/>
       <c r="B14" s="26" t="s">
         <v>267</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="385"/>
+      <c r="A15" s="400"/>
       <c r="B15" s="26" t="s">
         <v>271</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="385"/>
+      <c r="A16" s="400"/>
       <c r="B16" s="26" t="s">
         <v>272</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="385"/>
+      <c r="A17" s="400"/>
       <c r="B17" s="26" t="s">
         <v>274</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="385"/>
+      <c r="A18" s="400"/>
       <c r="B18" s="26" t="s">
         <v>278</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="385"/>
+      <c r="A19" s="400"/>
       <c r="B19" s="26" t="s">
         <v>280</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="385"/>
+      <c r="A20" s="400"/>
       <c r="B20" s="26" t="s">
         <v>290</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="385"/>
+      <c r="A21" s="400"/>
       <c r="B21" s="357" t="s">
         <v>294</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="385"/>
+      <c r="A22" s="400"/>
       <c r="B22" s="26" t="s">
         <v>294</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="385"/>
+      <c r="A23" s="400"/>
       <c r="B23" s="26" t="s">
         <v>302</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="385"/>
+      <c r="A24" s="400"/>
       <c r="B24" s="26" t="s">
         <v>312</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="385"/>
+      <c r="A25" s="400"/>
       <c r="B25" s="26" t="s">
         <v>318</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="385"/>
+      <c r="A26" s="400"/>
       <c r="B26" s="26" t="s">
         <v>320</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="385"/>
+      <c r="A27" s="400"/>
       <c r="B27" s="26"/>
       <c r="C27" s="243"/>
       <c r="D27" s="243"/>
@@ -5940,7 +5940,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="385"/>
+      <c r="A28" s="400"/>
       <c r="B28" s="26"/>
       <c r="C28" s="243"/>
       <c r="D28" s="243"/>
@@ -5954,7 +5954,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="385"/>
+      <c r="A29" s="400"/>
       <c r="B29" s="26"/>
       <c r="C29" s="243"/>
       <c r="D29" s="243"/>
@@ -5968,7 +5968,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="385"/>
+      <c r="A30" s="400"/>
       <c r="B30" s="26"/>
       <c r="C30" s="243"/>
       <c r="D30" s="243"/>
@@ -5982,7 +5982,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="385"/>
+      <c r="A31" s="400"/>
       <c r="B31" s="26"/>
       <c r="C31" s="243"/>
       <c r="D31" s="243"/>
@@ -5996,7 +5996,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="385"/>
+      <c r="A32" s="400"/>
       <c r="B32" s="26"/>
       <c r="C32" s="243"/>
       <c r="D32" s="243"/>
@@ -6010,7 +6010,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="385"/>
+      <c r="A33" s="400"/>
       <c r="B33" s="26"/>
       <c r="C33" s="243"/>
       <c r="D33" s="245"/>
@@ -6024,7 +6024,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="385"/>
+      <c r="A34" s="400"/>
       <c r="B34" s="26"/>
       <c r="C34" s="243"/>
       <c r="D34" s="243"/>
@@ -6038,7 +6038,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="385"/>
+      <c r="A35" s="400"/>
       <c r="B35" s="26"/>
       <c r="C35" s="243"/>
       <c r="D35" s="243"/>
@@ -6052,7 +6052,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="385"/>
+      <c r="A36" s="400"/>
       <c r="B36" s="26"/>
       <c r="C36" s="243"/>
       <c r="D36" s="243"/>
@@ -6066,7 +6066,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="385"/>
+      <c r="A37" s="400"/>
       <c r="B37" s="26"/>
       <c r="C37" s="243"/>
       <c r="D37" s="243"/>
@@ -6080,7 +6080,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="385"/>
+      <c r="A38" s="400"/>
       <c r="B38" s="26"/>
       <c r="C38" s="243"/>
       <c r="D38" s="243"/>
@@ -6094,7 +6094,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="385"/>
+      <c r="A39" s="400"/>
       <c r="B39" s="26"/>
       <c r="C39" s="243"/>
       <c r="D39" s="243"/>
@@ -6108,7 +6108,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="385"/>
+      <c r="A40" s="400"/>
       <c r="B40" s="26"/>
       <c r="C40" s="243"/>
       <c r="D40" s="243"/>
@@ -6122,7 +6122,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="385"/>
+      <c r="A41" s="400"/>
       <c r="B41" s="26"/>
       <c r="C41" s="243"/>
       <c r="D41" s="243"/>
@@ -6136,7 +6136,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="385"/>
+      <c r="A42" s="400"/>
       <c r="B42" s="26"/>
       <c r="C42" s="243"/>
       <c r="D42" s="243"/>
@@ -6150,7 +6150,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="385"/>
+      <c r="A43" s="400"/>
       <c r="B43" s="26"/>
       <c r="C43" s="243"/>
       <c r="D43" s="243"/>
@@ -6164,7 +6164,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="385"/>
+      <c r="A44" s="400"/>
       <c r="B44" s="26"/>
       <c r="C44" s="243"/>
       <c r="D44" s="243"/>
@@ -6178,7 +6178,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="385"/>
+      <c r="A45" s="400"/>
       <c r="B45" s="26"/>
       <c r="C45" s="243"/>
       <c r="D45" s="243"/>
@@ -6192,7 +6192,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="385"/>
+      <c r="A46" s="400"/>
       <c r="B46" s="26"/>
       <c r="C46" s="243"/>
       <c r="D46" s="243"/>
@@ -6206,7 +6206,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="385"/>
+      <c r="A47" s="400"/>
       <c r="B47" s="26"/>
       <c r="C47" s="243"/>
       <c r="D47" s="243"/>
@@ -6220,7 +6220,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="385"/>
+      <c r="A48" s="400"/>
       <c r="B48" s="26"/>
       <c r="C48" s="243"/>
       <c r="D48" s="243"/>
@@ -6234,7 +6234,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="385"/>
+      <c r="A49" s="400"/>
       <c r="B49" s="26"/>
       <c r="C49" s="243"/>
       <c r="D49" s="243"/>
@@ -6248,7 +6248,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="385"/>
+      <c r="A50" s="400"/>
       <c r="B50" s="26"/>
       <c r="C50" s="243"/>
       <c r="D50" s="243"/>
@@ -6262,7 +6262,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="385"/>
+      <c r="A51" s="400"/>
       <c r="B51" s="26"/>
       <c r="C51" s="243"/>
       <c r="D51" s="243"/>
@@ -6276,7 +6276,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="385"/>
+      <c r="A52" s="400"/>
       <c r="B52" s="26"/>
       <c r="C52" s="243"/>
       <c r="D52" s="243"/>
@@ -6290,7 +6290,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="385"/>
+      <c r="A53" s="400"/>
       <c r="B53" s="26"/>
       <c r="C53" s="243"/>
       <c r="D53" s="243"/>
@@ -6304,7 +6304,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="385"/>
+      <c r="A54" s="400"/>
       <c r="B54" s="26"/>
       <c r="C54" s="243"/>
       <c r="D54" s="243"/>
@@ -6318,7 +6318,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="385"/>
+      <c r="A55" s="400"/>
       <c r="B55" s="26"/>
       <c r="C55" s="243"/>
       <c r="D55" s="243"/>
@@ -6332,7 +6332,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="385"/>
+      <c r="A56" s="400"/>
       <c r="B56" s="26"/>
       <c r="C56" s="243"/>
       <c r="D56" s="243"/>
@@ -6346,7 +6346,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="385"/>
+      <c r="A57" s="400"/>
       <c r="B57" s="26"/>
       <c r="C57" s="243"/>
       <c r="D57" s="243"/>
@@ -6357,7 +6357,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="385"/>
+      <c r="A58" s="400"/>
       <c r="B58" s="26"/>
       <c r="C58" s="243"/>
       <c r="D58" s="243"/>
@@ -6368,7 +6368,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="385"/>
+      <c r="A59" s="400"/>
       <c r="B59" s="26"/>
       <c r="C59" s="243"/>
       <c r="D59" s="243"/>
@@ -6379,7 +6379,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="385"/>
+      <c r="A60" s="400"/>
       <c r="B60" s="26"/>
       <c r="C60" s="243"/>
       <c r="D60" s="243"/>
@@ -6390,7 +6390,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="385"/>
+      <c r="A61" s="400"/>
       <c r="B61" s="26"/>
       <c r="C61" s="243"/>
       <c r="D61" s="243"/>
@@ -6401,7 +6401,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="385"/>
+      <c r="A62" s="400"/>
       <c r="B62" s="26"/>
       <c r="C62" s="243"/>
       <c r="D62" s="243"/>
@@ -6412,7 +6412,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="385"/>
+      <c r="A63" s="400"/>
       <c r="B63" s="26"/>
       <c r="C63" s="243"/>
       <c r="D63" s="243"/>
@@ -6423,7 +6423,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="385"/>
+      <c r="A64" s="400"/>
       <c r="B64" s="26"/>
       <c r="C64" s="243"/>
       <c r="D64" s="243"/>
@@ -6434,7 +6434,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="385"/>
+      <c r="A65" s="400"/>
       <c r="B65" s="26"/>
       <c r="C65" s="243"/>
       <c r="D65" s="243"/>
@@ -6445,7 +6445,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="385"/>
+      <c r="A66" s="400"/>
       <c r="B66" s="26"/>
       <c r="C66" s="243"/>
       <c r="D66" s="243"/>
@@ -6456,7 +6456,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="385"/>
+      <c r="A67" s="400"/>
       <c r="B67" s="26"/>
       <c r="C67" s="243"/>
       <c r="D67" s="243"/>
@@ -6467,7 +6467,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="385"/>
+      <c r="A68" s="400"/>
       <c r="B68" s="26"/>
       <c r="C68" s="243"/>
       <c r="D68" s="243"/>
@@ -6478,7 +6478,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="385"/>
+      <c r="A69" s="400"/>
       <c r="B69" s="26"/>
       <c r="C69" s="243"/>
       <c r="D69" s="243"/>
@@ -6489,7 +6489,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="385"/>
+      <c r="A70" s="400"/>
       <c r="B70" s="26"/>
       <c r="C70" s="243"/>
       <c r="D70" s="243"/>
@@ -6500,7 +6500,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="385"/>
+      <c r="A71" s="400"/>
       <c r="B71" s="26"/>
       <c r="C71" s="243"/>
       <c r="D71" s="243"/>
@@ -6511,7 +6511,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="385"/>
+      <c r="A72" s="400"/>
       <c r="B72" s="26"/>
       <c r="C72" s="243"/>
       <c r="D72" s="243"/>
@@ -6522,7 +6522,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="385"/>
+      <c r="A73" s="400"/>
       <c r="B73" s="26"/>
       <c r="C73" s="243"/>
       <c r="D73" s="243"/>
@@ -6533,7 +6533,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="385"/>
+      <c r="A74" s="400"/>
       <c r="B74" s="26"/>
       <c r="C74" s="243"/>
       <c r="D74" s="243"/>
@@ -6544,7 +6544,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="385"/>
+      <c r="A75" s="400"/>
       <c r="B75" s="26"/>
       <c r="C75" s="243"/>
       <c r="D75" s="243"/>
@@ -6555,7 +6555,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="385"/>
+      <c r="A76" s="400"/>
       <c r="B76" s="26"/>
       <c r="C76" s="243"/>
       <c r="D76" s="243"/>
@@ -6566,7 +6566,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="385"/>
+      <c r="A77" s="400"/>
       <c r="B77" s="26"/>
       <c r="C77" s="243"/>
       <c r="D77" s="243"/>
@@ -6577,7 +6577,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="385"/>
+      <c r="A78" s="400"/>
       <c r="B78" s="26"/>
       <c r="C78" s="243"/>
       <c r="D78" s="243"/>
@@ -6588,7 +6588,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="385"/>
+      <c r="A79" s="400"/>
       <c r="B79" s="26"/>
       <c r="C79" s="243"/>
       <c r="D79" s="243"/>
@@ -6600,7 +6600,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="385"/>
+      <c r="A80" s="400"/>
       <c r="B80" s="26"/>
       <c r="C80" s="243"/>
       <c r="D80" s="243"/>
@@ -6612,7 +6612,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="385"/>
+      <c r="A81" s="400"/>
       <c r="B81" s="26"/>
       <c r="C81" s="243"/>
       <c r="D81" s="243"/>
@@ -6624,7 +6624,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="385"/>
+      <c r="A82" s="400"/>
       <c r="B82" s="26"/>
       <c r="C82" s="243"/>
       <c r="D82" s="243"/>
@@ -6636,7 +6636,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="385"/>
+      <c r="A83" s="400"/>
       <c r="B83" s="31"/>
       <c r="C83" s="244">
         <f>SUM(C5:C72)</f>
@@ -6692,67 +6692,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="390"/>
-      <c r="G1" s="390"/>
-      <c r="H1" s="390"/>
-      <c r="I1" s="390"/>
-      <c r="J1" s="390"/>
-      <c r="K1" s="390"/>
-      <c r="L1" s="390"/>
-      <c r="M1" s="390"/>
-      <c r="N1" s="390"/>
-      <c r="O1" s="390"/>
-      <c r="P1" s="390"/>
-      <c r="Q1" s="390"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="405"/>
+      <c r="O1" s="405"/>
+      <c r="P1" s="405"/>
+      <c r="Q1" s="405"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="391" t="s">
+      <c r="A2" s="406" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
-      <c r="J2" s="391"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="391"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
+      <c r="J2" s="406"/>
+      <c r="K2" s="406"/>
+      <c r="L2" s="406"/>
+      <c r="M2" s="406"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="406"/>
+      <c r="Q2" s="406"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="392" t="s">
+      <c r="A3" s="407" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="393"/>
-      <c r="M3" s="393"/>
-      <c r="N3" s="393"/>
-      <c r="O3" s="393"/>
-      <c r="P3" s="393"/>
-      <c r="Q3" s="394"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="408"/>
+      <c r="G3" s="408"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="408"/>
+      <c r="J3" s="408"/>
+      <c r="K3" s="408"/>
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="408"/>
+      <c r="P3" s="408"/>
+      <c r="Q3" s="409"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6761,52 +6761,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="397" t="s">
+      <c r="B4" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="386" t="s">
+      <c r="C4" s="401" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="386" t="s">
+      <c r="D4" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="386" t="s">
+      <c r="E4" s="401" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="399" t="s">
+      <c r="F4" s="414" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="386" t="s">
+      <c r="G4" s="401" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="386" t="s">
+      <c r="H4" s="401" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="386" t="s">
+      <c r="I4" s="401" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="386" t="s">
+      <c r="J4" s="401" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="386" t="s">
+      <c r="K4" s="401" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="386" t="s">
+      <c r="L4" s="401" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="386" t="s">
+      <c r="M4" s="401" t="s">
         <v>279</v>
       </c>
-      <c r="N4" s="386" t="s">
+      <c r="N4" s="401" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="388" t="s">
+      <c r="O4" s="403" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="401" t="s">
+      <c r="P4" s="416" t="s">
         <v>142</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6819,22 +6819,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="396"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="387"/>
-      <c r="D5" s="387"/>
-      <c r="E5" s="387"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="387"/>
-      <c r="M5" s="387"/>
-      <c r="N5" s="387"/>
-      <c r="O5" s="389"/>
-      <c r="P5" s="402"/>
+      <c r="A5" s="411"/>
+      <c r="B5" s="413"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="415"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="402"/>
+      <c r="O5" s="404"/>
+      <c r="P5" s="417"/>
       <c r="Q5" s="122" t="s">
         <v>38</v>
       </c>
@@ -9928,11 +9928,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9947,6 +9942,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9987,15 +9987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="408" t="s">
+      <c r="A1" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -10088,15 +10088,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="409" t="s">
+      <c r="A2" s="424" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
+      <c r="B2" s="424"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -10189,15 +10189,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="425" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -13633,12 +13633,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="405" t="s">
+      <c r="B35" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="405"/>
-      <c r="E35" s="405"/>
+      <c r="C35" s="420"/>
+      <c r="D35" s="420"/>
+      <c r="E35" s="420"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -14507,10 +14507,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="171"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="406"/>
-      <c r="H43" s="406"/>
-      <c r="I43" s="406"/>
-      <c r="J43" s="406"/>
+      <c r="G43" s="421"/>
+      <c r="H43" s="421"/>
+      <c r="I43" s="421"/>
+      <c r="J43" s="421"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -14820,17 +14820,17 @@
       <c r="CS45" s="133"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="454" t="s">
+      <c r="A46" s="382" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="455" t="s">
+      <c r="B46" s="383" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="456"/>
-      <c r="D46" s="457">
+      <c r="C46" s="384"/>
+      <c r="D46" s="385">
         <v>61790</v>
       </c>
-      <c r="E46" s="458" t="s">
+      <c r="E46" s="386" t="s">
         <v>239</v>
       </c>
       <c r="F46" s="126"/>
@@ -14938,17 +14938,17 @@
       <c r="CS46" s="133"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="454" t="s">
+      <c r="A47" s="382" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="459" t="s">
+      <c r="B47" s="387" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="460"/>
-      <c r="D47" s="461">
+      <c r="C47" s="388"/>
+      <c r="D47" s="389">
         <v>194980</v>
       </c>
-      <c r="E47" s="462" t="s">
+      <c r="E47" s="390" t="s">
         <v>302</v>
       </c>
       <c r="F47" s="127"/>
@@ -15056,17 +15056,17 @@
       <c r="CS47" s="133"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="454" t="s">
+      <c r="A48" s="382" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="463" t="s">
+      <c r="B48" s="391" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="460"/>
-      <c r="D48" s="461">
+      <c r="C48" s="388"/>
+      <c r="D48" s="389">
         <v>257930</v>
       </c>
-      <c r="E48" s="462" t="s">
+      <c r="E48" s="390" t="s">
         <v>320</v>
       </c>
       <c r="F48" s="127"/>
@@ -15174,17 +15174,17 @@
       <c r="CS48" s="133"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="454" t="s">
+      <c r="A49" s="382" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="464" t="s">
+      <c r="B49" s="392" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="460"/>
-      <c r="D49" s="461">
+      <c r="C49" s="388"/>
+      <c r="D49" s="389">
         <v>173770</v>
       </c>
-      <c r="E49" s="462" t="s">
+      <c r="E49" s="390" t="s">
         <v>274</v>
       </c>
       <c r="F49" s="127"/>
@@ -15292,17 +15292,17 @@
       <c r="CS49" s="133"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="454" t="s">
+      <c r="A50" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="464" t="s">
+      <c r="B50" s="392" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="460"/>
-      <c r="D50" s="461">
+      <c r="C50" s="388"/>
+      <c r="D50" s="389">
         <v>361400</v>
       </c>
-      <c r="E50" s="465" t="s">
+      <c r="E50" s="393" t="s">
         <v>280</v>
       </c>
       <c r="F50" s="127"/>
@@ -15410,17 +15410,17 @@
       <c r="CS50" s="133"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="454" t="s">
+      <c r="A51" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="463" t="s">
+      <c r="B51" s="391" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="460"/>
-      <c r="D51" s="461">
+      <c r="C51" s="388"/>
+      <c r="D51" s="389">
         <v>896890</v>
       </c>
-      <c r="E51" s="462" t="s">
+      <c r="E51" s="390" t="s">
         <v>290</v>
       </c>
       <c r="F51" s="127"/>
@@ -15528,17 +15528,17 @@
       <c r="CS51" s="133"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="454" t="s">
+      <c r="A52" s="382" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="466" t="s">
+      <c r="B52" s="394" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="460"/>
-      <c r="D52" s="467">
+      <c r="C52" s="388"/>
+      <c r="D52" s="395">
         <v>401670</v>
       </c>
-      <c r="E52" s="462" t="s">
+      <c r="E52" s="390" t="s">
         <v>302</v>
       </c>
       <c r="F52" s="127"/>
@@ -15646,17 +15646,17 @@
       <c r="CS52" s="133"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="454" t="s">
+      <c r="A53" s="382" t="s">
         <v>316</v>
       </c>
-      <c r="B53" s="463" t="s">
+      <c r="B53" s="391" t="s">
         <v>317</v>
       </c>
-      <c r="C53" s="460"/>
-      <c r="D53" s="461">
+      <c r="C53" s="388"/>
+      <c r="D53" s="389">
         <v>50000</v>
       </c>
-      <c r="E53" s="465" t="s">
+      <c r="E53" s="393" t="s">
         <v>312</v>
       </c>
       <c r="F53" s="127"/>
@@ -15764,17 +15764,17 @@
       <c r="CS53" s="133"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="454" t="s">
+      <c r="A54" s="382" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="463" t="s">
+      <c r="B54" s="391" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="460"/>
-      <c r="D54" s="461">
+      <c r="C54" s="388"/>
+      <c r="D54" s="389">
         <v>65000</v>
       </c>
-      <c r="E54" s="465" t="s">
+      <c r="E54" s="393" t="s">
         <v>318</v>
       </c>
       <c r="F54" s="127"/>
@@ -15882,11 +15882,11 @@
       <c r="CS54" s="133"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="454"/>
-      <c r="B55" s="459"/>
-      <c r="C55" s="460"/>
-      <c r="D55" s="461"/>
-      <c r="E55" s="465"/>
+      <c r="A55" s="382"/>
+      <c r="B55" s="387"/>
+      <c r="C55" s="388"/>
+      <c r="D55" s="389"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="127"/>
       <c r="G55" s="133"/>
       <c r="H55" s="182" t="s">
@@ -15992,11 +15992,11 @@
       <c r="CS55" s="133"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="468"/>
-      <c r="B56" s="466"/>
-      <c r="C56" s="460"/>
-      <c r="D56" s="461"/>
-      <c r="E56" s="465"/>
+      <c r="A56" s="396"/>
+      <c r="B56" s="394"/>
+      <c r="C56" s="388"/>
+      <c r="D56" s="389"/>
+      <c r="E56" s="393"/>
       <c r="F56" s="127"/>
       <c r="G56" s="133"/>
       <c r="H56" s="182" t="s">
@@ -22706,11 +22706,11 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="403" t="s">
+      <c r="A119" s="418" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="404"/>
-      <c r="C119" s="407"/>
+      <c r="B119" s="419"/>
+      <c r="C119" s="422"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
         <v>7479790</v>
@@ -22915,11 +22915,11 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="403" t="s">
+      <c r="A121" s="418" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="404"/>
-      <c r="C121" s="404"/>
+      <c r="B121" s="419"/>
+      <c r="C121" s="419"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
         <v>7479790</v>
@@ -34153,8 +34153,8 @@
   </sheetPr>
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34177,28 +34177,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="428" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="415"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="430"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="422" t="s">
+      <c r="A2" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="424"/>
+      <c r="B2" s="438"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="439"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34207,13 +34207,13 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="431" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="418"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34229,13 +34229,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="440" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="427"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="442"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34560,11 +34560,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="412" t="s">
+      <c r="I13" s="427" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="412"/>
-      <c r="K13" s="412"/>
+      <c r="J13" s="427"/>
+      <c r="K13" s="427"/>
       <c r="L13" s="290">
         <f>SUM(L5:L12)</f>
         <v>196900</v>
@@ -34589,11 +34589,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="299"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="428" t="s">
+      <c r="I14" s="443" t="s">
         <v>246</v>
       </c>
-      <c r="J14" s="428"/>
-      <c r="K14" s="428"/>
+      <c r="J14" s="443"/>
+      <c r="K14" s="443"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -34621,11 +34621,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="300"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="412" t="s">
+      <c r="I15" s="427" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="412"/>
-      <c r="K15" s="412"/>
+      <c r="J15" s="427"/>
+      <c r="K15" s="427"/>
       <c r="L15" s="335">
         <f>L13-L14</f>
         <v>142900</v>
@@ -34702,13 +34702,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="419" t="s">
+      <c r="A19" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="420"/>
-      <c r="C19" s="420"/>
-      <c r="D19" s="420"/>
-      <c r="E19" s="421"/>
+      <c r="B19" s="435"/>
+      <c r="C19" s="435"/>
+      <c r="D19" s="435"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -37871,21 +37871,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="434"/>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
+      <c r="A1" s="459"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="444" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="448"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="296">
         <f>C83</f>
         <v>50500</v>
@@ -37898,10 +37898,10 @@
       <c r="I2" s="306"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="444" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="453"/>
+      <c r="B3" s="445"/>
       <c r="C3" s="296">
         <v>53000</v>
       </c>
@@ -37913,10 +37913,10 @@
       <c r="I3" s="306"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="447" t="s">
+      <c r="A4" s="444" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="453"/>
+      <c r="B4" s="445"/>
       <c r="C4" s="310">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -37929,15 +37929,15 @@
       <c r="I4" s="306"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="434"/>
-      <c r="B5" s="434"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
-      <c r="I5" s="434"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="459"/>
+      <c r="C5" s="459"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="459"/>
+      <c r="F5" s="459"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
+      <c r="I5" s="459"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="256" t="s">
@@ -37977,13 +37977,13 @@
       </c>
       <c r="D7" s="285"/>
       <c r="E7" s="283"/>
-      <c r="G7" s="437">
+      <c r="G7" s="446">
         <v>44684</v>
       </c>
       <c r="H7" s="291" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="440">
+      <c r="I7" s="448">
         <v>15000</v>
       </c>
     </row>
@@ -37999,11 +37999,11 @@
       </c>
       <c r="D8" s="285"/>
       <c r="E8" s="283"/>
-      <c r="G8" s="437"/>
+      <c r="G8" s="446"/>
       <c r="H8" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="440"/>
+      <c r="I8" s="448"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="277" t="s">
@@ -38017,11 +38017,11 @@
       </c>
       <c r="D9" s="285"/>
       <c r="E9" s="283"/>
-      <c r="G9" s="438"/>
+      <c r="G9" s="447"/>
       <c r="H9" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="441"/>
+      <c r="I9" s="449"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="277" t="s">
@@ -38033,13 +38033,13 @@
       </c>
       <c r="D10" s="285"/>
       <c r="E10" s="283"/>
-      <c r="G10" s="437">
+      <c r="G10" s="446">
         <v>44684</v>
       </c>
       <c r="H10" s="291" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="440">
+      <c r="I10" s="448">
         <v>5500</v>
       </c>
     </row>
@@ -38053,11 +38053,11 @@
       </c>
       <c r="D11" s="285"/>
       <c r="E11" s="283"/>
-      <c r="G11" s="437"/>
+      <c r="G11" s="446"/>
       <c r="H11" s="291" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="440"/>
+      <c r="I11" s="448"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="277" t="s">
@@ -38069,11 +38069,11 @@
       </c>
       <c r="D12" s="285"/>
       <c r="E12" s="283"/>
-      <c r="G12" s="438"/>
+      <c r="G12" s="447"/>
       <c r="H12" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="441"/>
+      <c r="I12" s="449"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="277"/>
@@ -38081,13 +38081,13 @@
       <c r="C13" s="277"/>
       <c r="D13" s="285"/>
       <c r="E13" s="283"/>
-      <c r="G13" s="437">
+      <c r="G13" s="446">
         <v>44684</v>
       </c>
       <c r="H13" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="440">
+      <c r="I13" s="448">
         <v>5000</v>
       </c>
     </row>
@@ -38097,11 +38097,11 @@
       <c r="C14" s="255"/>
       <c r="D14" s="285"/>
       <c r="E14" s="283"/>
-      <c r="G14" s="437"/>
+      <c r="G14" s="446"/>
       <c r="H14" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="440"/>
+      <c r="I14" s="448"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="277"/>
@@ -38109,11 +38109,11 @@
       <c r="C15" s="277"/>
       <c r="D15" s="285"/>
       <c r="E15" s="283"/>
-      <c r="G15" s="438"/>
+      <c r="G15" s="447"/>
       <c r="H15" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="441"/>
+      <c r="I15" s="449"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="255" t="s">
@@ -38127,13 +38127,13 @@
       </c>
       <c r="D16" s="285"/>
       <c r="E16" s="283"/>
-      <c r="G16" s="437">
+      <c r="G16" s="446">
         <v>44684</v>
       </c>
       <c r="H16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="440">
+      <c r="I16" s="448">
         <v>3000</v>
       </c>
     </row>
@@ -38149,11 +38149,11 @@
       </c>
       <c r="D17" s="285"/>
       <c r="E17" s="283"/>
-      <c r="G17" s="437"/>
+      <c r="G17" s="446"/>
       <c r="H17" s="291" t="s">
         <v>192</v>
       </c>
-      <c r="I17" s="440"/>
+      <c r="I17" s="448"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="255" t="s">
@@ -38167,11 +38167,11 @@
       </c>
       <c r="D18" s="285"/>
       <c r="E18" s="283"/>
-      <c r="G18" s="438"/>
+      <c r="G18" s="447"/>
       <c r="H18" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="440"/>
+      <c r="I18" s="448"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="255" t="s">
@@ -38185,13 +38185,13 @@
       </c>
       <c r="D19" s="285"/>
       <c r="E19" s="283"/>
-      <c r="G19" s="437" t="s">
+      <c r="G19" s="446" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="439">
+      <c r="I19" s="462">
         <v>18000</v>
       </c>
     </row>
@@ -38207,11 +38207,11 @@
       </c>
       <c r="D20" s="285"/>
       <c r="E20" s="283"/>
-      <c r="G20" s="437"/>
+      <c r="G20" s="446"/>
       <c r="H20" s="291" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="440"/>
+      <c r="I20" s="448"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="255" t="s">
@@ -38225,11 +38225,11 @@
       </c>
       <c r="D21" s="285"/>
       <c r="E21" s="283"/>
-      <c r="G21" s="438"/>
+      <c r="G21" s="447"/>
       <c r="H21" s="292" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="441"/>
+      <c r="I21" s="449"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="255" t="s">
@@ -38243,13 +38243,13 @@
       </c>
       <c r="D22" s="285"/>
       <c r="E22" s="283"/>
-      <c r="G22" s="437" t="s">
+      <c r="G22" s="446" t="s">
         <v>199</v>
       </c>
       <c r="H22" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="440">
+      <c r="I22" s="448">
         <v>7500</v>
       </c>
     </row>
@@ -38265,11 +38265,11 @@
       </c>
       <c r="D23" s="285"/>
       <c r="E23" s="283"/>
-      <c r="G23" s="437"/>
+      <c r="G23" s="446"/>
       <c r="H23" s="291" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="440"/>
+      <c r="I23" s="448"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="255" t="s">
@@ -38283,11 +38283,11 @@
       </c>
       <c r="D24" s="285"/>
       <c r="E24" s="283"/>
-      <c r="G24" s="438"/>
+      <c r="G24" s="447"/>
       <c r="H24" s="292" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="441"/>
+      <c r="I24" s="449"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="255" t="s">
@@ -38301,13 +38301,13 @@
       </c>
       <c r="D25" s="285"/>
       <c r="E25" s="283"/>
-      <c r="G25" s="437" t="s">
+      <c r="G25" s="446" t="s">
         <v>199</v>
       </c>
       <c r="H25" s="291" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="440">
+      <c r="I25" s="448">
         <v>1000</v>
       </c>
     </row>
@@ -38323,11 +38323,11 @@
       </c>
       <c r="D26" s="285"/>
       <c r="E26" s="283"/>
-      <c r="G26" s="437"/>
+      <c r="G26" s="446"/>
       <c r="H26" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="440"/>
+      <c r="I26" s="448"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="255" t="s">
@@ -38341,11 +38341,11 @@
       </c>
       <c r="D27" s="285"/>
       <c r="E27" s="283"/>
-      <c r="G27" s="438"/>
+      <c r="G27" s="447"/>
       <c r="H27" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="441"/>
+      <c r="I27" s="449"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="255" t="s">
@@ -38359,13 +38359,13 @@
       </c>
       <c r="D28" s="285"/>
       <c r="E28" s="283"/>
-      <c r="G28" s="442" t="s">
+      <c r="G28" s="463" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="444">
+      <c r="I28" s="465">
         <v>-2000</v>
       </c>
     </row>
@@ -38385,11 +38385,11 @@
       <c r="E29" s="283">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="442"/>
+      <c r="G29" s="463"/>
       <c r="H29" s="294" t="s">
         <v>204</v>
       </c>
-      <c r="I29" s="445"/>
+      <c r="I29" s="466"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="255" t="s">
@@ -38405,11 +38405,11 @@
         <v>162</v>
       </c>
       <c r="E30" s="283"/>
-      <c r="G30" s="443"/>
+      <c r="G30" s="464"/>
       <c r="H30" s="295" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="446"/>
+      <c r="I30" s="467"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="255" t="s">
@@ -38425,10 +38425,10 @@
         <v>164</v>
       </c>
       <c r="E31" s="283"/>
-      <c r="G31" s="435" t="s">
+      <c r="G31" s="460" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="436"/>
+      <c r="H31" s="461"/>
       <c r="I31" s="307">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -38448,10 +38448,10 @@
         <v>171</v>
       </c>
       <c r="E32" s="283"/>
-      <c r="G32" s="451" t="s">
+      <c r="G32" s="457" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="452"/>
+      <c r="H32" s="458"/>
       <c r="I32" s="308">
         <f>I52</f>
         <v>37500</v>
@@ -38473,10 +38473,10 @@
       <c r="E33" s="283">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="449" t="s">
+      <c r="G33" s="455" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="450"/>
+      <c r="H33" s="456"/>
       <c r="I33" s="309">
         <f>I31-I32</f>
         <v>15500</v>
@@ -38524,16 +38524,16 @@
       <c r="E36" s="283">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="429" t="s">
+      <c r="G36" s="452" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="430"/>
-      <c r="I36" s="431"/>
-      <c r="K36" s="429" t="s">
+      <c r="H36" s="453"/>
+      <c r="I36" s="454"/>
+      <c r="K36" s="452" t="s">
         <v>257</v>
       </c>
-      <c r="L36" s="430"/>
-      <c r="M36" s="431"/>
+      <c r="L36" s="453"/>
+      <c r="M36" s="454"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="255" t="s">
@@ -38902,18 +38902,18 @@
       <c r="C52" s="255"/>
       <c r="D52" s="285"/>
       <c r="E52" s="283"/>
-      <c r="G52" s="432" t="s">
+      <c r="G52" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="433"/>
+      <c r="H52" s="451"/>
       <c r="I52" s="315">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="432" t="s">
+      <c r="K52" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="433"/>
+      <c r="L52" s="451"/>
       <c r="M52" s="315">
         <f>SUM(M38:M51)</f>
         <v>27000</v>
@@ -39144,18 +39144,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -39172,6 +39160,18 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39197,18 +39197,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="434"/>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
+      <c r="A1" s="459"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="444" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="448"/>
+      <c r="B2" s="468"/>
       <c r="C2" s="296">
         <f>C81</f>
         <v>34250</v>
@@ -39218,12 +39218,12 @@
       <c r="F2" s="306"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="434"/>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="434"/>
-      <c r="F3" s="434"/>
+      <c r="A3" s="459"/>
+      <c r="B3" s="459"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="459"/>
+      <c r="F3" s="459"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="256" t="s">
